--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3609117.290488434</v>
+        <v>3606572.697794151</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.030217162</v>
+        <v>7630903.030217161</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>109.9645463939863</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>48.47711506061698</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>31.15979419121912</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>130.4949840230018</v>
       </c>
     </row>
     <row r="4">
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425904</v>
       </c>
       <c r="S5" t="n">
-        <v>106.7540211797185</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090805</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.01513250260193</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.3306063007479</v>
+        <v>44.33060630074792</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>29.4330594053461</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.2859115061312</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.1480668197304</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>60.64560821255572</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,7 +1181,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -1190,13 +1190,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>337.7095887303065</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>184.529964620825</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7831302631783</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>254.809596790797</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,10 +1661,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>140.7215037338434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.2091541404067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>98.00068573248046</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042195</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>4.444394634329537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>105.9893107373045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>167.5280026112704</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>32.27552175740432</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3481,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.279871084294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>167.3637267182086</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634792</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>91.66636605273428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4034,13 +4034,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.65602513333643</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271972</v>
+        <v>126.0773463611706</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652794</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823974</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659127</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659127</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="V2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="W2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3361714764006</v>
+        <v>133.0228471103741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>529.2080240617047</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>529.2080240617047</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>380.2736144004534</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652794</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652794</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="T3" t="n">
-        <v>718.6278090781893</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="U3" t="n">
-        <v>718.6278090781893</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="V3" t="n">
-        <v>718.6278090781893</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="W3" t="n">
-        <v>718.6278090781893</v>
+        <v>336.2349471645398</v>
       </c>
       <c r="X3" t="n">
-        <v>718.6278090781893</v>
+        <v>146.8151621480549</v>
       </c>
       <c r="Y3" t="n">
-        <v>529.2080240617047</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1074137586279</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="C5" t="n">
-        <v>412.1448968182161</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="D5" t="n">
-        <v>53.87919821146562</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146562</v>
+        <v>53.87919821146561</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226215</v>
+        <v>46.93369746226213</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017225</v>
@@ -4571,16 +4571,16 @@
         <v>277.9807166746987</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030776</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709195</v>
+        <v>823.5081935709193</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079242</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
         <v>1621.82224833276</v>
@@ -4589,28 +4589,28 @@
         <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837886</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="S5" t="n">
-        <v>1620.070471211908</v>
+        <v>1562.810726301002</v>
       </c>
       <c r="T5" t="n">
-        <v>1408.211136348344</v>
+        <v>1562.810726301002</v>
       </c>
       <c r="U5" t="n">
-        <v>1154.573172019708</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="V5" t="n">
-        <v>1154.573172019708</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="W5" t="n">
-        <v>1154.573172019708</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="X5" t="n">
-        <v>781.1074137586279</v>
+        <v>935.7070037112867</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.1074137586279</v>
+        <v>826.2672908738316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>674.4822427088154</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>500.0292134276884</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>351.0948037664372</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>191.8573487609817</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="F6" t="n">
-        <v>191.8573487609817</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G6" t="n">
-        <v>54.7753618749415</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H6" t="n">
-        <v>54.7753618749415</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787545</v>
+        <v>61.66788464787541</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806066</v>
+        <v>186.1577239806065</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189984</v>
+        <v>399.8722171189982</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223508</v>
+        <v>668.6238185223506</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352489</v>
+        <v>958.8971200352487</v>
       </c>
       <c r="O6" t="n">
         <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.17623363951</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
         <v>1401.100270703775</v>
@@ -4674,22 +4674,22 @@
         <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.30937869937</v>
+        <v>1062.768760419125</v>
       </c>
       <c r="U6" t="n">
-        <v>1258.30937869937</v>
+        <v>834.6536183746811</v>
       </c>
       <c r="V6" t="n">
-        <v>1258.30937869937</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="W6" t="n">
-        <v>1258.30937869937</v>
+        <v>569.7711471072352</v>
       </c>
       <c r="X6" t="n">
-        <v>1050.457878493837</v>
+        <v>569.7711471072352</v>
       </c>
       <c r="Y6" t="n">
-        <v>842.6975797288835</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.8635834179919</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8635834179919</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="D7" t="n">
-        <v>202.8635834179919</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="E7" t="n">
-        <v>202.8635834179919</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="F7" t="n">
-        <v>202.8635834179919</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574702</v>
+        <v>64.240666625747</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584118</v>
+        <v>132.1299861584117</v>
       </c>
       <c r="M7" t="n">
         <v>206.9680378347975</v>
@@ -4738,37 +4738,37 @@
         <v>287.8841338195371</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934723</v>
+        <v>342.3101561934722</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.889436942748</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.889436942748</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.889436942748</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.889436942748</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858011</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858011</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858011</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858011</v>
+        <v>34.55805631675771</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.2209934405464</v>
+        <v>588.3049192120716</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2584765001347</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2584765001347</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
         <v>141.2584765001347</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113637</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1241.481122113637</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>900.3603254163581</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.2209934405464</v>
+        <v>588.3049192120716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>758.3254512019777</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>583.8724219208507</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>434.9380122595995</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>275.700557254144</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1367.172048607646</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1112.934691879445</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>926.5407882220456</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>926.5407882220456</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4990,16 +4990,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>296.6854897332227</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>296.6854897332227</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X10" t="n">
         <v>43.36919653809306</v>
@@ -5024,22 +5024,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.774446768175</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.172981791116</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,19 +5540,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.4644740681603</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>465.5282911402533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2098.071953838597</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000582</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565524</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2272.857469997002</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2272.857469997002</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.7543264856228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1103.195370459393</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.4027913158625</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,22 +6713,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466574</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156759</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314346</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612593</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,16 +7728,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.448174698413</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0966395286528</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>31.713401545794</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>119.4047645948078</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>212.9610556929587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.03697526434014</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>118.6564717779738</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>148.7507642442403</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>13.66255928343602</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.9286282187583</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055059</v>
@@ -26326,34 +26326,34 @@
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055062</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025313</v>
+        <v>270592.3620253126</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231925</v>
+        <v>115410.0540231926</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881992</v>
+        <v>62913.63765881982</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197477</v>
+        <v>27875.25362197479</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
         <v>206604.4229263461</v>
@@ -26430,34 +26430,34 @@
         <v>16046.58397189199</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.58397189203</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>16046.58397189195</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="K4" t="n">
-        <v>16046.58397189194</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189196</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189206</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16046.583971892</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936821</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955202</v>
+        <v>-146889.5863955203</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000421</v>
+        <v>226357.1617000425</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.5554031067</v>
+        <v>405177.5554031065</v>
       </c>
       <c r="E6" t="n">
-        <v>48176.94833544166</v>
+        <v>48142.21041000585</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.155909707</v>
+        <v>649585.4179842715</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.155909707</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="H6" t="n">
-        <v>649620.1559097071</v>
+        <v>649585.4179842713</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.1559097066</v>
+        <v>649585.4179842713</v>
       </c>
       <c r="J6" t="n">
-        <v>600555.2111811624</v>
+        <v>600520.4732557263</v>
       </c>
       <c r="K6" t="n">
-        <v>586706.518250887</v>
+        <v>586671.7803254513</v>
       </c>
       <c r="L6" t="n">
-        <v>621744.9022877323</v>
+        <v>621710.1643622967</v>
       </c>
       <c r="M6" t="n">
-        <v>492473.7753581089</v>
+        <v>492439.037432673</v>
       </c>
       <c r="N6" t="n">
-        <v>649620.1559097071</v>
+        <v>649585.4179842713</v>
       </c>
       <c r="O6" t="n">
-        <v>649620.1559097065</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.1559097066</v>
+        <v>649585.417984271</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.45294417455255e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950619</v>
+        <v>758.8996292950618</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594716</v>
+        <v>431.9757039594714</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821575</v>
+        <v>210.4296883821571</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262221</v>
+        <v>94.81103524262232</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931514</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>303.1332868360717</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988694</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>279.2751434095179</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>164.2498036007821</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>75.18771175430254</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716297</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410617</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760036</v>
+        <v>92.85788772760039</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.74474065753697</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469731</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>23.30571834677319</v>
+        <v>43.32085084937513</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>222.2619237555735</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.54606867580614</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27795,7 +27795,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304045</v>
+        <v>30.24193919304047</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058915</v>
+        <v>36.91115760589152</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27831,7 +27831,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.98957650409758</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.6272835584518</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>32.02151194816258</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>21.24302058265243</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28062,19 +28062,19 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.354513060649737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>39.79376420727294</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,10 +28381,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.387202709860801e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.350276212680659e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30754,13 +30754,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.45294417455255e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>9.45294417455255e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,37 +31276,37 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085674</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
         <v>31.24454604429366</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286704</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520271</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511779</v>
+        <v>481.4474502511778</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968102</v>
+        <v>535.7030533968101</v>
       </c>
       <c r="N5" t="n">
-        <v>544.37128886107</v>
+        <v>544.3712888610698</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191492</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860966</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634658</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
         <v>191.6431310098731</v>
@@ -31358,46 +31358,46 @@
         <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062488</v>
+        <v>56.20152915062487</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721891</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658087</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468668</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374455</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872492</v>
+        <v>311.7072835872491</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947722</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378883</v>
+        <v>6.579516597378882</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31443,13 +31443,13 @@
         <v>41.15475366734533</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635566</v>
+        <v>96.75348224635565</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
         <v>214.5197755399139</v>
@@ -31461,22 +31461,22 @@
         <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
         <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054713</v>
+        <v>61.53307486054712</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830803</v>
+        <v>5.847259438830802</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656355</v>
+        <v>0.07464586517656353</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>342.490526454265</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>708.9385480032147</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>531.8166820790243</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422518</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8027404478645</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>301.9817606876396</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198417</v>
+        <v>77.89141170198411</v>
       </c>
       <c r="K5" t="n">
         <v>167.9900634070465</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811906</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695375</v>
+        <v>305.3568201695374</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264479</v>
+        <v>314.9582252644789</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974624</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
         <v>207.483447730827</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092699</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
         <v>215.8732253923149</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437904</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635335</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930011</v>
+        <v>245.781379993001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729189</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872835</v>
+        <v>68.38629016872829</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554475</v>
+        <v>29.98243465554472</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501489</v>
+        <v>68.57507023501486</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230887</v>
+        <v>75.59399159230884</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761573</v>
+        <v>81.7334302876157</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569205</v>
+        <v>54.97578017569202</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235236</v>
+        <v>27.78676100235234</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>566.8045140811963</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>393.2623022991502</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237764</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>130.3364854949993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>310.2064960034201</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38096,19 +38096,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>526.8707440555626</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
